--- a/xls/square_high_un_16_tri3_19.xlsx
+++ b/xls/square_high_un_16_tri3_19.xlsx
@@ -476,22 +476,22 @@
         <v>12</v>
       </c>
       <c r="F19">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
-        <v>2166</v>
+        <v>2676</v>
       </c>
       <c r="I19">
-        <v>-2.034395931450381</v>
+        <v>-1.3840353184369354</v>
       </c>
       <c r="J19">
-        <v>-1.760355740053636</v>
+        <v>-1.199118810208308</v>
       </c>
       <c r="K19">
-        <v>0.15204461731880514</v>
+        <v>1.1580549473282942</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -511,22 +511,22 @@
         <v>12</v>
       </c>
       <c r="F20">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20">
-        <v>2400</v>
+        <v>3138</v>
       </c>
       <c r="I20">
-        <v>-1.6660726660077292</v>
+        <v>-0.012928669266029244</v>
       </c>
       <c r="J20">
-        <v>-1.4199447543294799</v>
+        <v>-0.012576486694412994</v>
       </c>
       <c r="K20">
-        <v>0.5104125614929009</v>
+        <v>2.855289480918378</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="F21">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21">
-        <v>2646</v>
+        <v>3330</v>
       </c>
       <c r="I21">
-        <v>-1.0852464655363787</v>
+        <v>3.905863467014689e-5</v>
       </c>
       <c r="J21">
-        <v>-0.9649873917449198</v>
+        <v>-7.740559632867575e-5</v>
       </c>
       <c r="K21">
-        <v>1.2671293878002625</v>
+        <v>2.5868497998584017</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -581,22 +581,22 @@
         <v>12</v>
       </c>
       <c r="F22">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>2904</v>
+        <v>3738</v>
       </c>
       <c r="I22">
-        <v>-0.3796798568488605</v>
+        <v>-8.874083418231043e-6</v>
       </c>
       <c r="J22">
-        <v>-0.3410266338239662</v>
+        <v>-1.1221502924641355e-5</v>
       </c>
       <c r="K22">
-        <v>2.1563603813900283</v>
+        <v>2.0198326617648594</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -616,22 +616,22 @@
         <v>12</v>
       </c>
       <c r="F23">
-        <v>576</v>
+        <v>741</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
       </c>
       <c r="H23">
-        <v>3174</v>
+        <v>4164</v>
       </c>
       <c r="I23">
-        <v>-0.0037265965757047013</v>
+        <v>-4.001528414313208e-6</v>
       </c>
       <c r="J23">
-        <v>-0.005447587294544415</v>
+        <v>-5.14058198136763e-6</v>
       </c>
       <c r="K23">
-        <v>2.8508166008608176</v>
+        <v>1.8540741062694184</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -651,22 +651,22 @@
         <v>12</v>
       </c>
       <c r="F24">
-        <v>625</v>
+        <v>797</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
       </c>
       <c r="H24">
-        <v>3456</v>
+        <v>4488</v>
       </c>
       <c r="I24">
-        <v>-8.964202660196244e-6</v>
+        <v>-4.22626400837007e-6</v>
       </c>
       <c r="J24">
-        <v>-3.700087806194582e-5</v>
+        <v>-4.3632821523120095e-6</v>
       </c>
       <c r="K24">
-        <v>2.3877336724294715</v>
+        <v>1.7731605801639725</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -686,22 +686,22 @@
         <v>12</v>
       </c>
       <c r="F25">
-        <v>676</v>
+        <v>861</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
-        <v>3750</v>
+        <v>4860</v>
       </c>
       <c r="I25">
-        <v>-1.643043969992176e-5</v>
+        <v>-3.709248975521268e-6</v>
       </c>
       <c r="J25">
-        <v>-1.83751162673341e-5</v>
+        <v>-3.421301125207902e-6</v>
       </c>
       <c r="K25">
-        <v>2.1179764429912593</v>
+        <v>1.691067383968442</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -721,22 +721,22 @@
         <v>12</v>
       </c>
       <c r="F26">
-        <v>729</v>
+        <v>927</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
       </c>
       <c r="H26">
-        <v>4056</v>
+        <v>5244</v>
       </c>
       <c r="I26">
-        <v>-1.1020877265256321e-5</v>
+        <v>-2.1303261574321953e-6</v>
       </c>
       <c r="J26">
-        <v>-1.1530557406764415e-5</v>
+        <v>-2.2652232092112354e-6</v>
       </c>
       <c r="K26">
-        <v>2.000336338077132</v>
+        <v>1.6406117592947749</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -756,22 +756,22 @@
         <v>12</v>
       </c>
       <c r="F27">
-        <v>784</v>
+        <v>977</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>4374</v>
+        <v>5532</v>
       </c>
       <c r="I27">
-        <v>-1.077876493011811e-5</v>
+        <v>-2.092862677222708e-6</v>
       </c>
       <c r="J27">
-        <v>-1.0131699965304937e-5</v>
+        <v>-2.0438014181754854e-6</v>
       </c>
       <c r="K27">
-        <v>1.9409531941915152</v>
+        <v>1.5969857586886718</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -791,22 +791,22 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>841</v>
+        <v>1034</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>4704</v>
+        <v>5862</v>
       </c>
       <c r="I28">
-        <v>-5.470086228177382e-6</v>
+        <v>-1.9865885501622127e-6</v>
       </c>
       <c r="J28">
-        <v>-5.6055184370971155e-6</v>
+        <v>-2.048671118016323e-6</v>
       </c>
       <c r="K28">
-        <v>1.836610887114</v>
+        <v>1.6083208450593196</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -826,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>5046</v>
+        <v>6156</v>
       </c>
       <c r="I29">
-        <v>-4.2109785524249405e-6</v>
+        <v>-2.4925299843112518e-6</v>
       </c>
       <c r="J29">
-        <v>-4.365980229249579e-6</v>
+        <v>-2.2454449132296276e-6</v>
       </c>
       <c r="K29">
-        <v>1.7828454926965531</v>
+        <v>1.5918968253497519</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -861,22 +861,22 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>961</v>
+        <v>1177</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>5400</v>
+        <v>6696</v>
       </c>
       <c r="I30">
-        <v>-2.8998471008075535e-6</v>
+        <v>-1.6074983792392637e-6</v>
       </c>
       <c r="J30">
-        <v>-3.030982501422591e-6</v>
+        <v>-1.5196140798958218e-6</v>
       </c>
       <c r="K30">
-        <v>1.7090912868324055</v>
+        <v>1.5217696917472794</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -896,22 +896,22 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1024</v>
+        <v>1243</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>5766</v>
+        <v>7080</v>
       </c>
       <c r="I31">
-        <v>-2.5759456137071255e-6</v>
+        <v>-1.4339473266143694e-6</v>
       </c>
       <c r="J31">
-        <v>-2.6517770664756325e-6</v>
+        <v>-1.3173099859471698e-6</v>
       </c>
       <c r="K31">
-        <v>1.674529111767959</v>
+        <v>1.4836093148050995</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -931,22 +931,22 @@
         <v>12</v>
       </c>
       <c r="F32">
-        <v>1089</v>
+        <v>1325</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32">
-        <v>6144</v>
+        <v>7560</v>
       </c>
       <c r="I32">
-        <v>-1.836722305108058e-6</v>
+        <v>-1.3243744311064908e-6</v>
       </c>
       <c r="J32">
-        <v>-1.99095361839012e-6</v>
+        <v>-1.2595495583807447e-6</v>
       </c>
       <c r="K32">
-        <v>1.6244414635535374</v>
+        <v>1.4832157977142795</v>
       </c>
     </row>
   </sheetData>
